--- a/plots/basic_stats/two_var_stats/allmus_country_name_vs_governance.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_country_name_vs_governance.xlsx
@@ -365,67 +365,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>/Government/Cadw</t>
+          <t>Government-Cadw</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>/Government/Local Authority</t>
+          <t>Government-Local_Authority</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>/Government/National</t>
+          <t>Government-National</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>/Government/Other</t>
+          <t>Government-Other</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/English Heritage</t>
+          <t>Independent-English_Heritage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Historic Environment Scotland</t>
+          <t>Independent-Historic_Environment_Scotland</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/National Trust</t>
+          <t>Independent-National_Trust</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/National Trust for Scotland</t>
+          <t>Independent-National_Trust_for_Scotland</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Not for profit</t>
+          <t>Independent-Not_for_profit</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Private</t>
+          <t>Independent-Private</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Unknown</t>
+          <t>Independent-Unknown</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>/University</t>
+          <t>University</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>/Unknown</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
@@ -439,40 +439,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="D2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1261</v>
+        <v>1341</v>
       </c>
       <c r="K2">
-        <v>528</v>
+        <v>588</v>
       </c>
       <c r="L2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="M2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="N2">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -485,7 +485,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -506,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L3">
         <v>3</v>
@@ -531,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D4">
         <v>11</v>
@@ -543,28 +543,28 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J4">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="K4">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -577,10 +577,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K5">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="L5">
         <v>8</v>
